--- a/src/Input_Files/characters/characters_empty_land.xlsx
+++ b/src/Input_Files/characters/characters_empty_land.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python Scripts\imperator\ProvinceOrganizer\EP_ImperatorProvinceOrganizer\src\Input_Files\characters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0579109-D18C-4D99-8EF4-773F90AD4996}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11731EFA-178D-4D80-8BDB-DED6B636F7CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26190" yWindow="2415" windowWidth="21600" windowHeight="11565" xr2:uid="{E5B2FA9E-FCEB-4F64-AA77-9CDFE63EBBF9}"/>
+    <workbookView xWindow="32655" yWindow="3840" windowWidth="21600" windowHeight="11565" xr2:uid="{E5B2FA9E-FCEB-4F64-AA77-9CDFE63EBBF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -387,9 +387,6 @@
     <t>fra</t>
   </si>
   <si>
-    <t>e_Britannia</t>
-  </si>
-  <si>
     <t>write_to_file</t>
   </si>
   <si>
@@ -409,6 +406,9 @@
   </si>
   <si>
     <t>k_ireland</t>
+  </si>
+  <si>
+    <t>e_britannia</t>
   </si>
 </sst>
 </file>
@@ -791,7 +791,7 @@
   <dimension ref="A1:BE18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D1" t="s">
         <v>113</v>
       </c>
       <c r="E1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -999,16 +999,16 @@
     </row>
     <row r="2" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>100</v>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
         <v>39</v>
@@ -1229,7 +1229,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F12" t="s">
         <v>114</v>
@@ -1355,7 +1355,7 @@
         <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F15" t="s">
         <v>85</v>

--- a/src/Input_Files/characters/characters_empty_land.xlsx
+++ b/src/Input_Files/characters/characters_empty_land.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python Scripts\imperator\ProvinceOrganizer\EP_ImperatorProvinceOrganizer\src\Input_Files\characters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11731EFA-178D-4D80-8BDB-DED6B636F7CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D302DE7F-1777-4660-84F0-9FFDDE61D336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32655" yWindow="3840" windowWidth="21600" windowHeight="11565" xr2:uid="{E5B2FA9E-FCEB-4F64-AA77-9CDFE63EBBF9}"/>
+    <workbookView xWindow="-22815" yWindow="3405" windowWidth="21600" windowHeight="11385" xr2:uid="{E5B2FA9E-FCEB-4F64-AA77-9CDFE63EBBF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="126">
   <si>
     <t>RGB</t>
   </si>
@@ -409,6 +409,9 @@
   </si>
   <si>
     <t>e_britannia</t>
+  </si>
+  <si>
+    <t>realm_succession_laws</t>
   </si>
 </sst>
 </file>
@@ -788,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{400C5842-DB98-492E-993D-80D39F62EB82}">
-  <dimension ref="A1:BE18"/>
+  <dimension ref="A1:BF18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,31 +803,32 @@
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -837,391 +841,394 @@
       <c r="D1" t="s">
         <v>113</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" t="s">
         <v>117</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>37</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>38</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>10</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>11</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>12</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>13</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>14</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>15</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>16</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>65</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>66</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>67</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>68</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>69</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>70</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>71</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>72</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>73</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>74</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>75</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>76</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>77</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>78</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>79</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>80</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>81</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>82</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>83</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:58" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>119</v>
       </c>
       <c r="B3" t="s">
         <v>39</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>42</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>100</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>87</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>26</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>41</v>
       </c>
       <c r="B4" t="s">
         <v>40</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>43</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>101</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>88</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>47</v>
       </c>
       <c r="B5" t="s">
         <v>44</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>53</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>102</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>89</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
       <c r="B6" t="s">
         <v>45</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>54</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>103</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>90</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>49</v>
       </c>
       <c r="B7" t="s">
         <v>46</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>55</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>104</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>91</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>50</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>56</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>105</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>92</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>51</v>
       </c>
       <c r="B9" t="s">
         <v>60</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>57</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>106</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>93</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>52</v>
       </c>
       <c r="B10" t="s">
         <v>61</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>58</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>107</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>94</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>23</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>108</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>95</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>26</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>10</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>11</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>12</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>13</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>14</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>15</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>115</v>
       </c>
@@ -1231,123 +1238,123 @@
       <c r="C12" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>114</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>109</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>96</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>26</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>1</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>2</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>3</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>4</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>5</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>6</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
       <c r="B13" t="s">
         <v>62</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>25</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>110</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>97</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>26</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>1</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>2</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>3</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>4</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>5</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>6</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
       <c r="B14" t="s">
         <v>63</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>64</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>111</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>98</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>26</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>1</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>2</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>3</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>4</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>5</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>6</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>116</v>
       </c>
@@ -1357,37 +1364,37 @@
       <c r="D15" t="s">
         <v>124</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>85</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>112</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>99</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>26</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>1</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>2</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>3</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>4</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>5</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>6</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>5</v>
       </c>
     </row>
